--- a/excel/idr_ensanut_agrupados.xlsx
+++ b/excel/idr_ensanut_agrupados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\iguandonte\lab\github\boxplot_eat_lancet\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13836D1C-D5EA-4FEC-BC36-73BFA28F91DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480CD247-F5B0-4FAF-8BAC-DB3B50ED27D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{58DFAEF9-51AD-4612-AE09-65F49E1C2B61}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{58DFAEF9-51AD-4612-AE09-65F49E1C2B61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
   <si>
     <t>alimento</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>proteina_vegetal</t>
+  </si>
+  <si>
+    <t>clasificacion</t>
+  </si>
+  <si>
+    <t>idr</t>
   </si>
 </sst>
 </file>
@@ -449,15 +455,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CA3C23-B6FB-4BB4-B694-DC5846B24E59}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +473,11 @@
       <c r="C1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -478,8 +487,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -489,8 +501,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -500,8 +515,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -511,8 +529,11 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -522,8 +543,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -533,8 +557,11 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -544,8 +571,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -555,8 +585,11 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -566,8 +599,11 @@
       <c r="C10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -577,8 +613,11 @@
       <c r="C11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -588,8 +627,11 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -599,8 +641,11 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -610,8 +655,11 @@
       <c r="C14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -619,6 +667,9 @@
         <v>110.95</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
     </row>
